--- a/database.xlsx
+++ b/database.xlsx
@@ -14,21 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Fecha</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Modelo</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>2020-06-06</t>
+    <t>2020-06-27</t>
   </si>
   <si>
     <t>Blue TFT</t>
@@ -38,15 +38,6 @@
   </si>
   <si>
     <t>fail</t>
-  </si>
-  <si>
-    <t>2020-06-13</t>
-  </si>
-  <si>
-    <t>2020-06-19</t>
-  </si>
-  <si>
-    <t>2020-06-27</t>
   </si>
 </sst>
 </file>
@@ -409,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,11 +426,11 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="n">
+        <v>15975</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>669369</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -449,307 +440,27 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="n">
+        <v>918582</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="n">
-        <v>669369</v>
-      </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="n">
+        <v>187148</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
-        <v>669369</v>
-      </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>285578</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>285578</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>285578</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>911748</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>911748</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>911748</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>565389</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>565389</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>565389</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>940607</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>940607</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>940607</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>499043</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>499043</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>499043</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="n">
-        <v>873340</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="n">
-        <v>680068</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="n">
-        <v>731098</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="n">
-        <v>300640</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="n">
-        <v>331091</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
         <v>7</v>
       </c>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>490505</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,34 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>319043</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>284888</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>19198</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>798774</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>423044</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>284761</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,6 +562,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>568949</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,6 +576,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>695885</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,6 +590,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>419258</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,6 +604,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>405640</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,6 +618,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>188822</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,6 +632,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>318476</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>Fecha</t>
   </si>
@@ -28,38 +28,97 @@
     <t>Status</t>
   </si>
   <si>
+    <t>2020-06-25</t>
+  </si>
+  <si>
+    <t>Blue TFT</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>2020-06-24</t>
+  </si>
+  <si>
+    <t>2020-06-23</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-06-21</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>2020-06-19</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>2020-06-14</t>
+  </si>
+  <si>
+    <t>2020-06-13</t>
+  </si>
+  <si>
     <t>2020-06-27</t>
-  </si>
-  <si>
-    <t>Blue TFT</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt formatCode="General" numFmtId="164"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,32 +138,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="3">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="5" name="Percent" xfId="1"/>
+    <cellStyle builtinId="4" name="Currency" xfId="2"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="3"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="4"/>
+    <cellStyle builtinId="3" name="Comma" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -396,19 +460,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G15" activeCellId="0" pane="topLeft" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="17.48"/>
+    <col customWidth="1" max="1025" min="2" width="10.67"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row customHeight="1" ht="15" r="1" s="2" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,231 +490,247 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row customHeight="1" ht="13.8" r="2" s="2" spans="1:4">
+      <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>15975</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
+    <row customHeight="1" ht="13.8" r="3" s="2" spans="1:4">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>918582</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
+    <row customHeight="1" ht="13.8" r="4" s="2" spans="1:4">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>187148</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="5" s="2" spans="1:4">
+      <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>490505</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
+    <row customHeight="1" ht="13.8" r="6" s="2" spans="1:4">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>319043</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="7" s="2" spans="1:4">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>284888</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
+    <row customHeight="1" ht="13.8" r="8" s="2" spans="1:4">
+      <c r="A8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>19198</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="C8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="9" s="2" spans="1:4">
+      <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>798774</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
+    <row customHeight="1" ht="13.8" r="10" s="2" spans="1:4">
+      <c r="A10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>423044</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="C10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="11" s="2" spans="1:4">
+      <c r="A11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="n">
         <v>284761</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
+      <c r="C11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="12" s="2" spans="1:4">
+      <c r="A12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="n">
         <v>568949</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
+    <row customHeight="1" ht="13.8" r="13" s="2" spans="1:4">
+      <c r="A13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>695885</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
+      <c r="C13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="14" s="2" spans="1:4">
+      <c r="A14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
         <v>419258</v>
       </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
+      <c r="C14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="15" s="2" spans="1:4">
+      <c r="A15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>405640</v>
       </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
+    <row customHeight="1" ht="15" r="16" s="2" spans="1:4">
+      <c r="A16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="0" t="n">
         <v>188822</v>
       </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
+    <row customHeight="1" ht="15" r="17" s="2" spans="1:4">
+      <c r="A17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="0" t="n">
         <v>318476</v>
       </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
+      <c r="C17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n">
+        <v>757145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -146,8 +146,8 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
@@ -163,12 +163,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="5" name="Percent" xfId="1"/>
-    <cellStyle builtinId="4" name="Currency" xfId="2"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="1"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="2"/>
+    <cellStyle builtinId="5" name="Percent" xfId="3"/>
     <cellStyle builtinId="6" name="Comma [0]" xfId="4"/>
-    <cellStyle builtinId="3" name="Comma" xfId="5"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="G15" activeCellId="0" pane="topLeft" sqref="G15"/>
@@ -472,8 +472,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="17.48"/>
-    <col customWidth="1" max="1025" min="2" width="10.67"/>
+    <col customWidth="1" max="1" min="1" style="2" width="17.48"/>
+    <col customWidth="1" max="1025" min="2" style="2" width="10.67"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="15" r="1" s="2" spans="1:4">
@@ -726,6 +726,20 @@
       </c>
       <c r="D18" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>730732</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -147,10 +147,10 @@
   </borders>
   <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
@@ -164,11 +164,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="3" name="Comma" xfId="0"/>
-    <cellStyle builtinId="0" name="Normal" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="1"/>
     <cellStyle builtinId="7" name="Currency [0]" xfId="2"/>
-    <cellStyle builtinId="5" name="Percent" xfId="3"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="4"/>
-    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="0" name="Normal" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="G15" activeCellId="0" pane="topLeft" sqref="G15"/>
@@ -742,6 +742,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>624178</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -149,8 +149,8 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
@@ -163,12 +163,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="3" name="Comma" xfId="0"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="1"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="0" name="Normal" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle builtinId="4" name="Currency" xfId="0"/>
+    <cellStyle builtinId="5" name="Percent" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="G15" activeCellId="0" pane="topLeft" sqref="G15"/>
@@ -756,6 +756,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>711338</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -163,12 +163,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="4" name="Currency" xfId="0"/>
-    <cellStyle builtinId="5" name="Percent" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="0"/>
+    <cellStyle builtinId="4" name="Currency" xfId="1"/>
     <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
     <cellStyle builtinId="0" name="Normal" xfId="3"/>
-    <cellStyle builtinId="3" name="Comma" xfId="4"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="5"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="G15" activeCellId="0" pane="topLeft" sqref="G15"/>
@@ -770,6 +770,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>736381</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -147,9 +147,9 @@
   </borders>
   <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
@@ -163,12 +163,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="3" name="Comma" xfId="0"/>
-    <cellStyle builtinId="4" name="Currency" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="4"/>
+    <cellStyle builtinId="3" name="Comma" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="G15" activeCellId="0" pane="topLeft" sqref="G15"/>
@@ -784,6 +784,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="n">
+        <v>254953</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -147,9 +147,9 @@
   </borders>
   <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
@@ -163,12 +163,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="7" name="Currency [0]" xfId="0"/>
-    <cellStyle builtinId="0" name="Normal" xfId="1"/>
-    <cellStyle builtinId="5" name="Percent" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="4"/>
-    <cellStyle builtinId="3" name="Comma" xfId="5"/>
+    <cellStyle builtinId="4" name="Currency" xfId="0"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="3"/>
+    <cellStyle builtinId="5" name="Percent" xfId="4"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="G15" activeCellId="0" pane="topLeft" sqref="G15"/>
@@ -798,6 +798,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n">
+        <v>134533</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Fecha</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>2020-06-27</t>
+  </si>
+  <si>
+    <t>2020-06-28</t>
   </si>
 </sst>
 </file>
@@ -148,8 +151,8 @@
   <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
@@ -163,12 +166,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="4" name="Currency" xfId="0"/>
+    <cellStyle builtinId="5" name="Percent" xfId="0"/>
     <cellStyle builtinId="6" name="Comma [0]" xfId="1"/>
-    <cellStyle builtinId="3" name="Comma" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="3"/>
-    <cellStyle builtinId="5" name="Percent" xfId="4"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="2"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -464,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="G15" activeCellId="0" pane="topLeft" sqref="G15"/>
@@ -812,6 +815,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n">
+        <v>468709</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -151,8 +151,8 @@
   <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
@@ -166,12 +166,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="5" name="Percent" xfId="0"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="2"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="3"/>
-    <cellStyle builtinId="3" name="Comma" xfId="4"/>
-    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="3"/>
+    <cellStyle builtinId="4" name="Currency" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="G15" activeCellId="0" pane="topLeft" sqref="G15"/>
@@ -829,6 +829,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="n">
+        <v>145055</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
